--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1889248.912816796</v>
+        <v>-1891836.424022373</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>282.2589447692166</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>366.2409276112774</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.0904450475561</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>296.3356618821742</v>
       </c>
       <c r="I2" t="n">
-        <v>48.0814842140681</v>
+        <v>48.08148421406824</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>113.0324549812898</v>
+        <v>113.0324549812899</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.0086695104302</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.089742000015</v>
       </c>
       <c r="H3" t="n">
-        <v>90.46872094984357</v>
+        <v>90.4687209498436</v>
       </c>
       <c r="I3" t="n">
-        <v>11.79954938173972</v>
+        <v>11.79954938173979</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>129.8202859453569</v>
+        <v>129.820285945357</v>
       </c>
       <c r="T3" t="n">
         <v>191.0804331905373</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>87.26461083794153</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.1014899708501</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>145.4278941339733</v>
+        <v>145.4278941339734</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>92.33507763978305</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>191.0879511638283</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>181.1548931292013</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>223.0977753814021</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>306.1710240582965</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>26.35809873733084</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>69.11446803363066</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.657500457872309</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>107.6745075257722</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>10.20389322926706</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>167.2943223756775</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634842</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631855192</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>70.58974991480679</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>245.879692121443</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710094</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>18.70843787976947</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892474</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>106.8299898147643</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722645</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766852</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>73.23997380652514</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576182</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179546</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634825</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>119.8099036979376</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>44.75138076689345</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444146</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176126</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673019</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308898</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652593</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3004,7 +3004,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3898,10 +3898,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3910,13 +3910,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1561.811532733953</v>
+        <v>1975.425391016306</v>
       </c>
       <c r="C2" t="n">
-        <v>1192.849015793541</v>
+        <v>1606.462874075894</v>
       </c>
       <c r="D2" t="n">
-        <v>907.7389705721105</v>
+        <v>1606.462874075894</v>
       </c>
       <c r="E2" t="n">
-        <v>521.9507179738663</v>
+        <v>1236.522543155412</v>
       </c>
       <c r="F2" t="n">
-        <v>110.9648131842587</v>
+        <v>825.5366383658045</v>
       </c>
       <c r="G2" t="n">
-        <v>110.9648131842587</v>
+        <v>410.2937645803943</v>
       </c>
       <c r="H2" t="n">
-        <v>110.9648131842587</v>
+        <v>110.9648131842588</v>
       </c>
       <c r="I2" t="n">
-        <v>62.39765741247275</v>
+        <v>62.39765741247266</v>
       </c>
       <c r="J2" t="n">
-        <v>237.1001391730312</v>
+        <v>237.1001391730307</v>
       </c>
       <c r="K2" t="n">
-        <v>549.6723906315693</v>
+        <v>549.6723906315684</v>
       </c>
       <c r="L2" t="n">
-        <v>974.3476699529738</v>
+        <v>974.347669952972</v>
       </c>
       <c r="M2" t="n">
-        <v>1478.55018180827</v>
+        <v>1478.550181808267</v>
       </c>
       <c r="N2" t="n">
-        <v>1995.525025811714</v>
+        <v>1995.525025811711</v>
       </c>
       <c r="O2" t="n">
-        <v>2470.35445007607</v>
+        <v>2470.354450076067</v>
       </c>
       <c r="P2" t="n">
-        <v>2841.109377259757</v>
+        <v>2841.109377259754</v>
       </c>
       <c r="Q2" t="n">
-        <v>3071.358140510237</v>
+        <v>3071.358140510233</v>
       </c>
       <c r="R2" t="n">
-        <v>3119.882870623637</v>
+        <v>3119.882870623633</v>
       </c>
       <c r="S2" t="n">
-        <v>3005.70867367284</v>
+        <v>3005.708673672836</v>
       </c>
       <c r="T2" t="n">
-        <v>3005.70867367284</v>
+        <v>3005.708673672836</v>
       </c>
       <c r="U2" t="n">
-        <v>3005.70867367284</v>
+        <v>2752.164563056239</v>
       </c>
       <c r="V2" t="n">
-        <v>2674.645786329269</v>
+        <v>2752.164563056239</v>
       </c>
       <c r="W2" t="n">
-        <v>2321.877131059155</v>
+        <v>2752.164563056239</v>
       </c>
       <c r="X2" t="n">
-        <v>1948.411372798075</v>
+        <v>2752.164563056239</v>
       </c>
       <c r="Y2" t="n">
-        <v>1948.411372798075</v>
+        <v>2362.025231080428</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4401,31 @@
         <v>165.6989405756882</v>
       </c>
       <c r="H3" t="n">
-        <v>74.31639416170479</v>
+        <v>74.31639416170478</v>
       </c>
       <c r="I3" t="n">
-        <v>62.39765741247275</v>
+        <v>62.39765741247266</v>
       </c>
       <c r="J3" t="n">
-        <v>147.6314117602529</v>
+        <v>147.6314117602526</v>
       </c>
       <c r="K3" t="n">
-        <v>505.1752167419863</v>
+        <v>505.1752167419885</v>
       </c>
       <c r="L3" t="n">
-        <v>852.4686968101803</v>
+        <v>852.4686968101821</v>
       </c>
       <c r="M3" t="n">
-        <v>1277.100675446836</v>
+        <v>1277.100675446837</v>
       </c>
       <c r="N3" t="n">
-        <v>1727.380043941864</v>
+        <v>1727.380043941865</v>
       </c>
       <c r="O3" t="n">
         <v>2117.07790170106</v>
       </c>
       <c r="P3" t="n">
-        <v>2410.51172267956</v>
+        <v>2410.511722679561</v>
       </c>
       <c r="Q3" t="n">
         <v>2556.745264694707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2203.166388071435</v>
+        <v>673.0337441822722</v>
       </c>
       <c r="C4" t="n">
-        <v>2034.230205143527</v>
+        <v>504.0975612543654</v>
       </c>
       <c r="D4" t="n">
-        <v>1884.113565731192</v>
+        <v>504.0975612543652</v>
       </c>
       <c r="E4" t="n">
-        <v>1736.200472148799</v>
+        <v>356.1844676719722</v>
       </c>
       <c r="F4" t="n">
-        <v>1648.054400595322</v>
+        <v>209.2945201740619</v>
       </c>
       <c r="G4" t="n">
-        <v>1480.275117796484</v>
+        <v>209.2945201740619</v>
       </c>
       <c r="H4" t="n">
-        <v>1333.378255034895</v>
+        <v>62.39765741247266</v>
       </c>
       <c r="I4" t="n">
-        <v>1333.378255034895</v>
+        <v>62.39765741247266</v>
       </c>
       <c r="J4" t="n">
-        <v>1373.203697426283</v>
+        <v>102.2230998038606</v>
       </c>
       <c r="K4" t="n">
-        <v>1568.485969881408</v>
+        <v>297.5053722589862</v>
       </c>
       <c r="L4" t="n">
-        <v>1873.906479893692</v>
+        <v>602.9258822712695</v>
       </c>
       <c r="M4" t="n">
-        <v>2206.318707680741</v>
+        <v>935.3381100583189</v>
       </c>
       <c r="N4" t="n">
-        <v>2536.261532090729</v>
+        <v>1265.280934468306</v>
       </c>
       <c r="O4" t="n">
-        <v>2825.000837712486</v>
+        <v>1554.020240090063</v>
       </c>
       <c r="P4" t="n">
-        <v>3048.546512699443</v>
+        <v>1777.56591507702</v>
       </c>
       <c r="Q4" t="n">
-        <v>3119.882870623637</v>
+        <v>1848.902273001214</v>
       </c>
       <c r="R4" t="n">
-        <v>3026.615115431937</v>
+        <v>1848.902273001214</v>
       </c>
       <c r="S4" t="n">
-        <v>2833.596982943222</v>
+        <v>1848.902273001214</v>
       </c>
       <c r="T4" t="n">
-        <v>2833.596982943222</v>
+        <v>1848.902273001214</v>
       </c>
       <c r="U4" t="n">
-        <v>2833.596982943222</v>
+        <v>1665.917532466667</v>
       </c>
       <c r="V4" t="n">
-        <v>2833.596982943222</v>
+        <v>1411.23304426078</v>
       </c>
       <c r="W4" t="n">
-        <v>2833.596982943222</v>
+        <v>1121.81587422382</v>
       </c>
       <c r="X4" t="n">
-        <v>2605.607432045204</v>
+        <v>893.8263233258024</v>
       </c>
       <c r="Y4" t="n">
-        <v>2384.814852901674</v>
+        <v>673.0337441822722</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1239.503030201924</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C5" t="n">
-        <v>870.5405132615124</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D5" t="n">
-        <v>512.2748146547618</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>126.4865620565176</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4562,16 +4562,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4580,37 +4580,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2783.986117256444</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176918</v>
+        <v>2452.923229912873</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2452.923229912873</v>
       </c>
       <c r="X5" t="n">
-        <v>2016.242202241858</v>
+        <v>2079.457471651794</v>
       </c>
       <c r="Y5" t="n">
-        <v>1626.102870266046</v>
+        <v>1689.318139675982</v>
       </c>
     </row>
     <row r="6">
@@ -4635,37 +4635,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>560.1023745137392</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>391.1661915858323</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>241.0495521734966</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>93.13645859110343</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>93.13645859110343</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>93.13645859110343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>93.13645859110343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="U7" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="V7" t="n">
-        <v>1450.843444452132</v>
+        <v>1259.157560278957</v>
       </c>
       <c r="W7" t="n">
-        <v>1161.426274415172</v>
+        <v>969.7403902419962</v>
       </c>
       <c r="X7" t="n">
-        <v>1091.613680441807</v>
+        <v>741.7508393439789</v>
       </c>
       <c r="Y7" t="n">
-        <v>1091.613680441807</v>
+        <v>741.7508393439789</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>926.2736972002929</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>568.0079985935424</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>182.2197459952982</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>175.2742452460947</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189674</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y8" t="n">
-        <v>2051.278283189674</v>
+        <v>1681.836054204826</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4899,34 +4899,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>530.2513404403937</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1916.987585230647</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1695.220969800173</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1406.118102925817</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>1151.43361471993</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W10" t="n">
-        <v>862.0164446829692</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X10" t="n">
-        <v>862.0164446829692</v>
+        <v>932.6923844141636</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>711.8998052706335</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,64 +5027,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591812</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636217</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>662.1522880254073</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>493.2161050975004</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>343.0994656851647</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851647</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851647</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000446</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000446</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797748</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2125.759767795844</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1836.684541140042</v>
       </c>
       <c r="V13" t="n">
-        <v>1977.461080510509</v>
+        <v>1582.000052934155</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1292.582882897195</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1064.593331999177</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>843.800752855647</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998423</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400683</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121614</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998255</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998255</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854703</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648816</v>
+        <v>1905.631426649718</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611855</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138381</v>
+        <v>1388.22470571474</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.502065570308</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5504,61 +5504,61 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192609</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
         <v>2129.438138565707</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400709</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1868.398285759939</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138407</v>
+        <v>1350.991564824961</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703106</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,61 +5738,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
         <v>2129.438138565707</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C22" t="n">
         <v>402.7245934908938</v>
@@ -5902,34 +5902,34 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2437.724555511392</v>
@@ -5950,10 +5950,10 @@
         <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L24" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.754138832765</v>
+        <v>741.8431516380892</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048581</v>
+        <v>741.8431516380892</v>
       </c>
       <c r="D25" t="n">
-        <v>594.8179559048582</v>
+        <v>591.7265122257535</v>
       </c>
       <c r="E25" t="n">
-        <v>594.8179559048582</v>
+        <v>443.8134186433604</v>
       </c>
       <c r="F25" t="n">
-        <v>447.9280084069478</v>
+        <v>296.92347114545</v>
       </c>
       <c r="G25" t="n">
-        <v>280.7319091218278</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>139.0200779640259</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806535</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630047</v>
+        <v>923.491616468329</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075819</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O27" t="n">
         <v>1896.176478190824</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="29">
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319312</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656804</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150012</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942643</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384022</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,28 +6643,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="32">
@@ -6686,61 +6686,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6862,31 +6862,31 @@
         <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838286</v>
@@ -6895,7 +6895,7 @@
         <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
         <v>1280.33868158239</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,16 +7090,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7108,13 +7108,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7187,13 +7187,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954154</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311328</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
@@ -7369,7 +7369,7 @@
         <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X40" t="n">
         <v>1280.33868158239</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319315</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656809</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150014</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942646</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580106</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345468</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954146</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380725</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,28 +7591,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
         <v>656.9646031150024</v>
@@ -7795,19 +7795,19 @@
         <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>135.0615335795961</v>
+        <v>135.061533579599</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>5.747744270113685</v>
+        <v>5.747744270113799</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -22550,19 +22550,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>72.42409685146635</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>15.68944246098442</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.0904450475561</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>296.3356618821742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22601,19 +22601,19 @@
         <v>204.6565392873045</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0086695104302</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>58.15643718498971</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.1014899708501</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.62837588899009</v>
+        <v>98.62837588899015</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,22 +22750,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>92.33507763978312</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>191.0879511638284</v>
       </c>
       <c r="T4" t="n">
         <v>219.8723165903172</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2159662989849</v>
+        <v>105.0610731697836</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,16 +23467,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>146.8157004124815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>40.64330621515145</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>126.7126101431618</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>111.7546635373305</v>
       </c>
     </row>
     <row r="17">
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194259</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,10 +23941,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>144.1654765207631</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194214</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>45.7142345943312</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>36.51445555167206</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>138.4949402405076</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1092188.031018591</v>
+        <v>1092188.03101859</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1323202.159831494</v>
+        <v>1323202.159831495</v>
       </c>
     </row>
     <row r="6">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82889.17417537622</v>
+        <v>82889.17417537609</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26329,19 +26329,19 @@
         <v>100893.3249612508</v>
       </c>
       <c r="H2" t="n">
-        <v>100893.3249612508</v>
+        <v>100893.3249612507</v>
       </c>
       <c r="I2" t="n">
-        <v>100893.3249612508</v>
+        <v>100893.3249612507</v>
       </c>
       <c r="J2" t="n">
         <v>100893.3249612507</v>
       </c>
       <c r="K2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="L2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="M2" t="n">
         <v>102630.2212330354</v>
@@ -26353,7 +26353,7 @@
         <v>102630.2212330354</v>
       </c>
       <c r="P2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1271067.297476341</v>
+        <v>1271067.297476339</v>
       </c>
       <c r="C3" t="n">
-        <v>54832.77288023844</v>
+        <v>54832.77288023883</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.461807356</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>204074.6584503628</v>
+        <v>204074.6584503623</v>
       </c>
       <c r="K3" t="n">
-        <v>32664.344105943</v>
+        <v>32664.34410594313</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551212</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363175</v>
+        <v>19427.71799363177</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15222.72472702451</v>
+        <v>15222.72472702457</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316936</v>
+        <v>91573.95495316954</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316948</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181812</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="F4" t="n">
+        <v>12386.92018181804</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12386.92018181802</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12386.92018181803</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12386.92018181809</v>
+      </c>
+      <c r="J4" t="n">
         <v>12386.92018181813</v>
       </c>
-      <c r="G4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12386.92018181809</v>
-      </c>
       <c r="K4" t="n">
-        <v>20377.77944491156</v>
+        <v>20377.77944491158</v>
       </c>
       <c r="L4" t="n">
-        <v>20377.77944491156</v>
+        <v>20377.77944491158</v>
       </c>
       <c r="M4" t="n">
-        <v>20377.77944491157</v>
+        <v>20377.77944491158</v>
       </c>
       <c r="N4" t="n">
-        <v>20377.77944491158</v>
+        <v>20377.77944491159</v>
       </c>
       <c r="O4" t="n">
         <v>20377.77944491159</v>
       </c>
       <c r="P4" t="n">
-        <v>20377.77944491159</v>
+        <v>20377.7794449116</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>103892.0286120431</v>
+        <v>103892.028612043</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26476,16 +26476,16 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1307292.876640032</v>
+        <v>-1307687.697581184</v>
       </c>
       <c r="C6" t="n">
-        <v>-151710.4471617657</v>
+        <v>-151710.4471617662</v>
       </c>
       <c r="D6" t="n">
-        <v>-96877.67428152732</v>
+        <v>-96877.67428152736</v>
       </c>
       <c r="E6" t="n">
-        <v>-338028.5868518295</v>
+        <v>-338063.3247772662</v>
       </c>
       <c r="F6" t="n">
-        <v>-12616.12504447451</v>
+        <v>-12650.86296991003</v>
       </c>
       <c r="G6" t="n">
-        <v>-12616.12504447447</v>
+        <v>-12650.86296991011</v>
       </c>
       <c r="H6" t="n">
-        <v>-12616.12504447448</v>
+        <v>-12650.86296991013</v>
       </c>
       <c r="I6" t="n">
-        <v>-12616.12504447448</v>
+        <v>-12650.86296991017</v>
       </c>
       <c r="J6" t="n">
-        <v>-216690.7834948373</v>
+        <v>-216725.5214202725</v>
       </c>
       <c r="K6" t="n">
-        <v>-53576.01817173448</v>
+        <v>-53576.01817173468</v>
       </c>
       <c r="L6" t="n">
-        <v>-20911.67406579151</v>
+        <v>-20911.67406579154</v>
       </c>
       <c r="M6" t="n">
-        <v>-105966.7020013033</v>
+        <v>-105966.7020013037</v>
       </c>
       <c r="N6" t="n">
-        <v>-20911.67406579154</v>
+        <v>-20911.67406579149</v>
       </c>
       <c r="O6" t="n">
-        <v>-20911.67406579155</v>
+        <v>-20911.67406579158</v>
       </c>
       <c r="P6" t="n">
         <v>-40339.39205942331</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203967</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1047.807751310266</v>
+        <v>1047.807751310265</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,40 +26787,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559093</v>
+        <v>779.9707176559083</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="F4" t="n">
+      <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="G4" t="n">
+      <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="H4" t="n">
+      <c r="M4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1047.807751310266</v>
+        <v>1047.807751310265</v>
       </c>
       <c r="C3" t="n">
-        <v>41.96894928303277</v>
+        <v>41.968949283033</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559093</v>
+        <v>779.9707176559083</v>
       </c>
       <c r="C4" t="n">
-        <v>51.43073774638356</v>
+        <v>51.43073774638412</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973569</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559095</v>
+        <v>779.9707176559077</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638356</v>
+        <v>51.43073774638412</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973569</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559093</v>
+        <v>779.9707176559083</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638356</v>
+        <v>51.43073774638412</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973569</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27670,16 +27670,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>27.8973965774999</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>63.56007662017254</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>69.99432167250728</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>156.5951873554065</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>379.0763412056083</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>303.2472181276812</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>179.5651321021748</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>58.41533301335966</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,10 +28087,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-3.406637946827541e-12</v>
       </c>
       <c r="C11" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.358178754647573e-11</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-9.831888791845538e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-1.857074494182598e-12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28539,7 +28539,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>-9.831888791845538e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-1.842629114180958e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.212292467578955</v>
+        <v>4.212292467578951</v>
       </c>
       <c r="H2" t="n">
-        <v>43.13914023359298</v>
+        <v>43.13914023359294</v>
       </c>
       <c r="I2" t="n">
-        <v>162.3944053563378</v>
+        <v>162.3944053563377</v>
       </c>
       <c r="J2" t="n">
-        <v>357.5130578201797</v>
+        <v>357.5130578201793</v>
       </c>
       <c r="K2" t="n">
-        <v>535.8193979727969</v>
+        <v>535.8193979727964</v>
       </c>
       <c r="L2" t="n">
-        <v>664.7313435774664</v>
+        <v>664.7313435774659</v>
       </c>
       <c r="M2" t="n">
-        <v>739.6416997477736</v>
+        <v>739.641699747773</v>
       </c>
       <c r="N2" t="n">
-        <v>751.6098757212824</v>
+        <v>751.6098757212818</v>
       </c>
       <c r="O2" t="n">
-        <v>709.7238924967942</v>
+        <v>709.7238924967935</v>
       </c>
       <c r="P2" t="n">
-        <v>605.7329222034386</v>
+        <v>605.7329222034381</v>
       </c>
       <c r="Q2" t="n">
-        <v>454.8801982082671</v>
+        <v>454.8801982082667</v>
       </c>
       <c r="R2" t="n">
-        <v>264.6004167165568</v>
+        <v>264.6004167165565</v>
       </c>
       <c r="S2" t="n">
-        <v>95.98761460495552</v>
+        <v>95.98761460495544</v>
       </c>
       <c r="T2" t="n">
-        <v>18.43931027682688</v>
+        <v>18.43931027682687</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3369833974063163</v>
+        <v>0.336983397406316</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.253775163195666</v>
+        <v>2.253775163195664</v>
       </c>
       <c r="H3" t="n">
-        <v>21.76672328665288</v>
+        <v>21.76672328665287</v>
       </c>
       <c r="I3" t="n">
-        <v>77.59708346967535</v>
+        <v>77.59708346967528</v>
       </c>
       <c r="J3" t="n">
-        <v>212.9323280280607</v>
+        <v>212.9323280280606</v>
       </c>
       <c r="K3" t="n">
-        <v>363.9352639621704</v>
+        <v>363.93526396217</v>
       </c>
       <c r="L3" t="n">
-        <v>489.355874798252</v>
+        <v>489.3558747982516</v>
       </c>
       <c r="M3" t="n">
-        <v>571.0552244640947</v>
+        <v>571.0552244640943</v>
       </c>
       <c r="N3" t="n">
-        <v>586.1693570278062</v>
+        <v>586.1693570278056</v>
       </c>
       <c r="O3" t="n">
-        <v>536.2304442012074</v>
+        <v>536.230444201207</v>
       </c>
       <c r="P3" t="n">
-        <v>430.3722063825128</v>
+        <v>430.3722063825124</v>
       </c>
       <c r="Q3" t="n">
-        <v>287.6924225861696</v>
+        <v>287.6924225861694</v>
       </c>
       <c r="R3" t="n">
-        <v>139.9317596938503</v>
+        <v>139.9317596938502</v>
       </c>
       <c r="S3" t="n">
-        <v>41.86288515848087</v>
+        <v>41.86288515848084</v>
       </c>
       <c r="T3" t="n">
-        <v>9.084295504284283</v>
+        <v>9.084295504284274</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1482746817891886</v>
+        <v>0.1482746817891885</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.889489387608676</v>
+        <v>1.889489387608674</v>
       </c>
       <c r="H4" t="n">
-        <v>16.79927837346624</v>
+        <v>16.79927837346622</v>
       </c>
       <c r="I4" t="n">
-        <v>56.82209903826819</v>
+        <v>56.82209903826814</v>
       </c>
       <c r="J4" t="n">
-        <v>133.5868997039334</v>
+        <v>133.5868997039333</v>
       </c>
       <c r="K4" t="n">
-        <v>219.5243124876261</v>
+        <v>219.5243124876259</v>
       </c>
       <c r="L4" t="n">
-        <v>280.9155404086572</v>
+        <v>280.9155404086569</v>
       </c>
       <c r="M4" t="n">
-        <v>296.1860500957854</v>
+        <v>296.1860500957851</v>
       </c>
       <c r="N4" t="n">
-        <v>289.1434078328805</v>
+        <v>289.1434078328803</v>
       </c>
       <c r="O4" t="n">
-        <v>267.0707363503609</v>
+        <v>267.0707363503607</v>
       </c>
       <c r="P4" t="n">
-        <v>228.5251528431438</v>
+        <v>228.5251528431436</v>
       </c>
       <c r="Q4" t="n">
-        <v>158.2189704478501</v>
+        <v>158.21897044785</v>
       </c>
       <c r="R4" t="n">
-        <v>84.95831373738643</v>
+        <v>84.95831373738636</v>
       </c>
       <c r="S4" t="n">
-        <v>32.92864687314391</v>
+        <v>32.92864687314388</v>
       </c>
       <c r="T4" t="n">
-        <v>8.073272837964339</v>
+        <v>8.073272837964332</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1030630575059279</v>
+        <v>0.1030630575059278</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286955</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>359.7096985496635</v>
+        <v>368.6279838366836</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>595.3275373121701</v>
       </c>
       <c r="O18" t="n">
-        <v>461.1007071927452</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912037</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32731,7 +32731,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>575.5951359912044</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>164.9290651940687</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,22 +33023,22 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214699</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L29" t="n">
         <v>867.8464071162563</v>
@@ -33427,7 +33427,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N32" t="n">
         <v>981.2715114159428</v>
@@ -33664,7 +33664,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159428</v>
@@ -33731,7 +33731,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33907,7 +33907,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236508</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33968,10 +33968,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422586</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34144,10 +34144,10 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669224</v>
@@ -34205,13 +34205,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>176.4671532934934</v>
+        <v>176.467153293493</v>
       </c>
       <c r="K2" t="n">
-        <v>315.7295469278163</v>
+        <v>315.7295469278159</v>
       </c>
       <c r="L2" t="n">
-        <v>428.9649286074792</v>
+        <v>428.9649286074786</v>
       </c>
       <c r="M2" t="n">
-        <v>509.2954665205009</v>
+        <v>509.2954665205003</v>
       </c>
       <c r="N2" t="n">
-        <v>522.1968121246914</v>
+        <v>522.196812124691</v>
       </c>
       <c r="O2" t="n">
-        <v>479.6256810751074</v>
+        <v>479.6256810751067</v>
       </c>
       <c r="P2" t="n">
-        <v>374.4999264481691</v>
+        <v>374.4999264481685</v>
       </c>
       <c r="Q2" t="n">
-        <v>232.5745083338176</v>
+        <v>232.5745083338172</v>
       </c>
       <c r="R2" t="n">
-        <v>49.01487890242464</v>
+        <v>49.01487890242441</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>86.09470136139404</v>
+        <v>86.09470136139387</v>
       </c>
       <c r="K3" t="n">
-        <v>361.1553585674075</v>
+        <v>361.15535856741</v>
       </c>
       <c r="L3" t="n">
-        <v>350.8014950183778</v>
+        <v>350.8014950183774</v>
       </c>
       <c r="M3" t="n">
-        <v>428.9211905420764</v>
+        <v>428.921190542076</v>
       </c>
       <c r="N3" t="n">
-        <v>454.8276449444729</v>
+        <v>454.8276449444724</v>
       </c>
       <c r="O3" t="n">
-        <v>393.634199756763</v>
+        <v>393.6341997567625</v>
       </c>
       <c r="P3" t="n">
-        <v>296.3977989681825</v>
+        <v>296.3977989681821</v>
       </c>
       <c r="Q3" t="n">
-        <v>147.7106485001481</v>
+        <v>147.7106485001478</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>40.22771958726059</v>
+        <v>40.22771958726048</v>
       </c>
       <c r="K4" t="n">
-        <v>197.2548206617433</v>
+        <v>197.2548206617431</v>
       </c>
       <c r="L4" t="n">
-        <v>308.5055656689733</v>
+        <v>308.5055656689731</v>
       </c>
       <c r="M4" t="n">
-        <v>335.769927057626</v>
+        <v>335.7699270576257</v>
       </c>
       <c r="N4" t="n">
-        <v>333.2755802121092</v>
+        <v>333.2755802121089</v>
       </c>
       <c r="O4" t="n">
-        <v>291.6558642644006</v>
+        <v>291.6558642644003</v>
       </c>
       <c r="P4" t="n">
-        <v>225.8037121080372</v>
+        <v>225.803712108037</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.05692719615574</v>
+        <v>72.0569271961556</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066772</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>228.3679864663302</v>
+        <v>237.2862717533503</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462697</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193519</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288368</v>
       </c>
       <c r="O18" t="n">
-        <v>318.5044627483008</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691854</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36358,7 +36358,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367783</v>
       </c>
       <c r="L23" t="n">
         <v>632.079992146269</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691861</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071396</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L29" t="n">
         <v>632.079992146269</v>
@@ -36996,19 +36996,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193518</v>
@@ -37233,19 +37233,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193518</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37470,19 +37470,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37792,10 +37792,10 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
